--- a/medicine/Handicap/Commission_des_Politiques_globales_en_matière_de_handicap_(Congrès_des_députés)/Commission_des_Politiques_globales_en_matière_de_handicap_(Congrès_des_députés).xlsx
+++ b/medicine/Handicap/Commission_des_Politiques_globales_en_matière_de_handicap_(Congrès_des_députés)/Commission_des_Politiques_globales_en_matière_de_handicap_(Congrès_des_députés).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Commission_des_Politiques_globales_en_mati%C3%A8re_de_handicap_(Congr%C3%A8s_des_d%C3%A9put%C3%A9s)</t>
+          <t>Commission_des_Politiques_globales_en_matière_de_handicap_(Congrès_des_députés)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La commission des Politiques globales en matière de handicap (en espagnol : Comisión para las Políticas Integrales de la Discapacidad) est une commission parlementaire du Congrès des députés espagnol.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Commission_des_Politiques_globales_en_mati%C3%A8re_de_handicap_(Congr%C3%A8s_des_d%C3%A9put%C3%A9s)</t>
+          <t>Commission_des_Politiques_globales_en_matière_de_handicap_(Congrès_des_députés)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Existante entre 2004 et 2019, elle était compétente pour analyser les propositions législatives et non-législatives et contrôler le pouvoir exécutif dans le domaine du handicap. Elle disparaît à l'ouverture de la XIVe législature avec la création de la commission des Droits sociaux et des Politiques globales du handicap.
-Présidents</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Existante entre 2004 et 2019, elle était compétente pour analyser les propositions législatives et non-législatives et contrôler le pouvoir exécutif dans le domaine du handicap. Elle disparaît à l'ouverture de la XIVe législature avec la création de la commission des Droits sociaux et des Politiques globales du handicap.
+</t>
         </is>
       </c>
     </row>
